--- a/Prefered_PARX_model_forecast/Resultater_PAR/lambda_f_2para_PARX_2.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/lambda_f_2para_PARX_2.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -38,14 +38,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,1722 +672,1722 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.68225763478158052</v>
+        <v>0.68225788690935385</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1.5865806423642774</v>
+        <v>1.5865808870042564</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>1.4086239433154866</v>
+        <v>1.4086245585024386</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>1.0985152193893062</v>
+        <v>1.0985151294157018</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.78861342700006976</v>
+        <v>0.78861329932523039</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1.794326188135521</v>
+        <v>1.7943260986957952</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.7327134191217923</v>
+        <v>1.7327139502297495</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>1.1827086240952167</v>
+        <v>1.182708757786465</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>1.4014895908302953</v>
+        <v>1.4014890534983044</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>1.2661660484912964</v>
+        <v>1.2661657477901282</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>2.4874211706404239</v>
+        <v>2.4874219855888966</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>1.8288075118270934</v>
+        <v>1.8288073885069334</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>2.5612367074510805</v>
+        <v>2.5612360695753811</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>1.3528728859414707</v>
+        <v>1.3528728139964465</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1.5977490980709801</v>
+        <v>1.5977489727683889</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1.1569529572547632</v>
+        <v>1.1569525529932756</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>2.6182983126753308</v>
+        <v>2.6183022329976007</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>2.116838905692318</v>
+        <v>2.1168391403473437</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>1.409489455933129</v>
+        <v>1.4094883158953344</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>1.0919165330026164</v>
+        <v>1.0919164712159035</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>1.2919761796077527</v>
+        <v>1.2919764049458904</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>1.8718127030370089</v>
+        <v>1.8718131249309975</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.97928379715924263</v>
+        <v>0.97928384087335707</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>2.9882516322534558</v>
+        <v>2.9882463741573604</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>3.4649500422849977</v>
+        <v>3.4649512811192489</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1.1101438507787207</v>
+        <v>1.1101430769810459</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1.7529665274872166</v>
+        <v>1.7529660473060837</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>2.1421650773622831</v>
+        <v>2.1421644371492281</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>1.7214983014180196</v>
+        <v>1.7214976662301096</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>1.1358133185689532</v>
+        <v>1.1358133594602773</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>3.5900439783584623</v>
+        <v>3.5900463784373153</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>1.4377338818951577</v>
+        <v>1.4377324929435875</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1.10641522534551</v>
+        <v>1.1064158185489132</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>2.2401924401659215</v>
+        <v>2.240192806852181</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.75448875708712104</v>
+        <v>0.75448885752049955</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1.1475829501868038</v>
+        <v>1.1475828930656402</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.53123984158765514</v>
+        <v>0.53123951653976142</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>3.0239185332669258</v>
+        <v>3.0239269637322668</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>2.4382798574643232</v>
+        <v>2.4382803517934226</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.91638408054674814</v>
+        <v>0.91638401686759219</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>1.3852433464790921</v>
+        <v>1.3852434455983917</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>1.539822990160429</v>
+        <v>1.5398228577068962</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>2.2408232986152039</v>
+        <v>2.2408243913646482</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>3.6144069899203979</v>
+        <v>3.6144073231912719</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>6.4055309562857712</v>
+        <v>6.4055237693903635</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>2.9084089506327726</v>
+        <v>2.9084120734585115</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>2.1599427562774265</v>
+        <v>2.159943219603075</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>4.016457436059822</v>
+        <v>4.0164571460483911</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>4.3280613875331628</v>
+        <v>4.3280617408989981</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>3.6368090480341695</v>
+        <v>3.6368092959220157</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>5.0143801869654698</v>
+        <v>5.014379890742477</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>5.3342967295270398</v>
+        <v>5.334301026541624</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>4.39610338794356</v>
+        <v>4.3961017409068219</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>4.4496299665630206</v>
+        <v>4.4496306162620973</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>6.1202956464755971</v>
+        <v>6.1202948082982722</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>4.4764862524593303</v>
+        <v>4.4764853671433356</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>4.3709903847327807</v>
+        <v>4.3709903494794649</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>6.8238605786131821</v>
+        <v>6.8238618176514185</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>7.861725614221033</v>
+        <v>7.861726488166572</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>7.2149451139900922</v>
+        <v>7.2149435151702663</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>4.9468479708965507</v>
+        <v>4.9468462218282507</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>6.7814235406970083</v>
+        <v>6.7814230901787136</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>7.7666036706801211</v>
+        <v>7.7666027370552442</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>6.0089234224041128</v>
+        <v>6.0089240521775373</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>4.2121798502421584</v>
+        <v>4.2121798856091885</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>7.3654666005065108</v>
+        <v>7.3654664443303419</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>6.6619222725664047</v>
+        <v>6.6619231176791267</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>4.777164827313916</v>
+        <v>4.7771653082540375</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>5.6985071119058457</v>
+        <v>5.6985076214305366</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>6.6338223179299511</v>
+        <v>6.6338218452196589</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>5.9251285963629918</v>
+        <v>5.9251275180161516</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>3.9127278245155743</v>
+        <v>3.9127283526569658</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>8.3731604526047114</v>
+        <v>8.3731623246130589</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>9.5819891184959811</v>
+        <v>9.5819818997601178</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>4.4174476741345003</v>
+        <v>4.4174482745562589</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>4.5251031994931195</v>
+        <v>4.5251044078903249</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>3.0917374423835566</v>
+        <v>3.0917373475038916</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>3.9689008467223008</v>
+        <v>3.9688997422186949</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>4.1945336684685071</v>
+        <v>4.1945326957811142</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>6.8982387412830342</v>
+        <v>6.8982361988073198</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>7.186581010499463</v>
+        <v>7.1865815253303351</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>5.8667416714204919</v>
+        <v>5.8667416129003005</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>6.1972421034465226</v>
+        <v>6.1972413788254244</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>6.0743515717082843</v>
+        <v>6.0743515437953413</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>6.0483236464453647</v>
+        <v>6.0483233696133567</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>5.7024424575304886</v>
+        <v>5.702441672373828</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>12.169811859544943</v>
+        <v>12.169807144850209</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>8.6075019231890355</v>
+        <v>8.6074979089044081</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>7.1415612053394115</v>
+        <v>7.1415613483725986</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>7.8480513783915615</v>
+        <v>7.8480524675124572</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>6.1022213840421937</v>
+        <v>6.1022206567905544</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>7.1885009720115303</v>
+        <v>7.1885008263445114</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>8.5454922996630192</v>
+        <v>8.5454952828164732</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>12.928318159084117</v>
+        <v>12.928316600312426</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>13.389369521677212</v>
+        <v>13.389374225175494</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>11.021650796338143</v>
+        <v>11.021651207313361</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>9.1677385181355397</v>
+        <v>9.167736965880751</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>10.202514949708469</v>
+        <v>10.202513064672704</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>9.6213775600269802</v>
+        <v>9.6213746227826533</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>11.260243176209238</v>
+        <v>11.260241216604841</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>19.287612668743673</v>
+        <v>19.28759944408533</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>15.138674539779593</v>
+        <v>15.138675547299187</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>12.730940476456036</v>
+        <v>12.730939805255503</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>14.533196263059041</v>
+        <v>14.533195602699781</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>14.192708900475065</v>
+        <v>14.192710396221457</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>10.447510065666766</v>
+        <v>10.447513000767708</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>8.9129507051649703</v>
+        <v>8.9129502433551906</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>22.087277954190281</v>
+        <v>22.087284961554129</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>18.677418668510832</v>
+        <v>18.677420664169013</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>12.545379260791151</v>
+        <v>12.545378275073334</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>13.332156519138207</v>
+        <v>13.332157253622405</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>10.441112652854979</v>
+        <v>10.44111234849899</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>10.624039782444477</v>
+        <v>10.62404154551697</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>9.6867297294751609</v>
+        <v>9.6867278643820853</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>25.551933282725404</v>
+        <v>25.551931316390082</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>20.844373189322582</v>
+        <v>20.844371386124973</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>18.731851193359876</v>
+        <v>18.73185196430309</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>14.29053559051124</v>
+        <v>14.290534510078707</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>12.197013987044267</v>
+        <v>12.197009462684036</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>11.586594767717926</v>
+        <v>11.586593077021753</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>12.726412942929615</v>
+        <v>12.726414327714185</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>27.548306115266008</v>
+        <v>27.548298405552579</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>23.810640462563189</v>
+        <v>23.810644498109614</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>14.274779215340292</v>
+        <v>14.274782500556308</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>13.16809564004898</v>
+        <v>13.168095088581953</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>12.929395137895334</v>
+        <v>12.929395017512077</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>9.3390891771079332</v>
+        <v>9.339087953693161</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>10.067583552591394</v>
+        <v>10.067586522282898</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>33.284586986387055</v>
+        <v>33.284603058923118</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>20.632627123649051</v>
+        <v>20.632637177273324</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>18.202139599211353</v>
+        <v>18.202139184607098</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>19.751173487093201</v>
+        <v>19.751175432600537</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>16.126816548618159</v>
+        <v>16.126815624162575</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>15.314826527328474</v>
+        <v>15.314828951758837</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>23.956602770909569</v>
+        <v>23.956599785392513</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>53.142200416244592</v>
+        <v>53.142174704797156</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>50.742171185283865</v>
+        <v>50.74216084465553</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>26.127196165827577</v>
+        <v>26.127190582391421</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>22.753176641494996</v>
+        <v>22.753180234820345</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>26.994207596573446</v>
+        <v>26.994209992891186</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>27.568385910011482</v>
+        <v>27.568388002010373</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>26.777589145963077</v>
+        <v>26.777594951393255</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>71.927609683624539</v>
+        <v>71.927610420717784</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>65.004909195851781</v>
+        <v>65.004921847751149</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>58.145234553773179</v>
+        <v>58.145236146749575</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>54.155687171916284</v>
+        <v>54.155679969547492</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>48.955455274890767</v>
+        <v>48.955450435821717</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>48.27043438537202</v>
+        <v>48.27043287586288</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>59.141661440399979</v>
+        <v>59.141641965040677</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>118.79414064483376</v>
+        <v>118.79407748021416</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>77.607379003109912</v>
+        <v>77.607385817769995</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>53.866762452613834</v>
+        <v>53.866759864885339</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>48.856814223058485</v>
+        <v>48.856818058930976</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>40.474142337945906</v>
+        <v>40.474145250144595</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>83.703267627070005</v>
+        <v>83.703324716067385</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>58.184316341192826</v>
+        <v>58.184310031277668</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>117.75938814827633</v>
+        <v>117.75943661104561</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>101.88963641103511</v>
+        <v>101.88963797961485</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>84.493823182388923</v>
+        <v>84.493812232941366</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>49.766996747128751</v>
+        <v>49.767000537445711</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>39.170363518647733</v>
+        <v>39.170368058489736</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>112.32052132400982</v>
+        <v>112.32060525499324</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>59.978272977843574</v>
+        <v>59.978272953131146</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>110.94364164515886</v>
+        <v>110.94358906564328</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>65.00782439001533</v>
+        <v>65.007839104801349</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>39.358889546395503</v>
+        <v>39.358891559187839</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>36.366889898079179</v>
+        <v>36.366884707236636</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>37.396894278320566</v>
+        <v>37.396902862713162</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>33.419342302628614</v>
+        <v>33.419345085477289</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>31.473193446554372</v>
+        <v>31.473187502072278</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>93.895020361251156</v>
+        <v>93.89497538463516</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>51.611392802979751</v>
+        <v>51.611393106892443</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>33.780902140519359</v>
+        <v>33.780899574555079</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>85.523303378951312</v>
+        <v>85.523356241899421</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>41.337110024373089</v>
+        <v>41.337128137243113</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>31.068671792074419</v>
+        <v>31.068670906972116</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>24.306036109550888</v>
+        <v>24.306033989638941</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>90.044388905512534</v>
+        <v>90.044367399596666</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>77.729319202171766</v>
+        <v>77.729323152155146</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>42.743818859205632</v>
+        <v>42.743814803262723</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>50.032655627919709</v>
+        <v>50.032650930385373</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>31.411705210375406</v>
+        <v>31.411701848430951</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>24.366854835227613</v>
+        <v>24.366852875078639</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>18.272211286672079</v>
+        <v>18.27221464758491</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>124.10656317129344</v>
+        <v>124.10661143101737</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>48.967020947920751</v>
+        <v>48.967037754959911</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>23.180670752677671</v>
+        <v>23.180662738134806</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>61.03554254675381</v>
+        <v>61.035504749973747</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>26.712064269918685</v>
+        <v>26.71208139511527</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>16.970006718808712</v>
+        <v>16.970010146312397</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>10.561221455806283</v>
+        <v>10.561219717150021</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>107.12752317708396</v>
+        <v>107.12751424865924</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>37.301351907716885</v>
+        <v>37.30136192539986</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>17.104064635343871</v>
+        <v>17.104059628865805</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>68.00129655568503</v>
+        <v>68.001325814839348</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>23.214163393820012</v>
+        <v>23.214175148020388</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>14.375695087819231</v>
+        <v>14.375694557748012</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>8.2117495770963842</v>
+        <v>8.2117512374357684</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>87.052199780600901</v>
+        <v>87.052220134720159</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>28.876828848229827</v>
+        <v>28.876839364152413</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>27.752717420616982</v>
+        <v>27.752696399918854</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>60.135243167998773</v>
+        <v>60.13518675962986</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>18.492370133161199</v>
+        <v>18.49235353283489</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>9.4030327229716306</v>
+        <v>9.4030329195994842</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>9.436976980340539</v>
+        <v>9.436979300187863</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>63.553166701148506</v>
+        <v>63.553150597667866</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>20.089522224780751</v>
+        <v>20.089521818466871</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>10.744529845634458</v>
+        <v>10.744525199737662</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>35.294760068850081</v>
+        <v>35.294774459798539</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>16.291087813679152</v>
+        <v>16.29108022657088</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>10.939078499275727</v>
+        <v>10.939078344898498</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>7.9918436152266663</v>
+        <v>7.9918445745825597</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>60.871156834519766</v>
+        <v>60.871130338880583</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>20.886243548333798</v>
+        <v>20.886238612235633</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>10.481739264000723</v>
+        <v>10.481734256621554</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>40.944605685570934</v>
+        <v>40.944657553147003</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>18.047475229863934</v>
+        <v>18.047506814977243</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>10.227216847417473</v>
+        <v>10.227215198175482</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>8.4366494751696699</v>
+        <v>8.4366487998496851</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>53.366248109511822</v>
+        <v>53.36621229444205</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>17.829189313994078</v>
+        <v>17.829171467884262</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>12.772724718105486</v>
+        <v>12.772731084929386</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>35.119408367188271</v>
+        <v>35.119456060516008</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>15.115774976918892</v>
+        <v>15.11577374284631</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>8.8344645666000385</v>
+        <v>8.8344650304198495</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>15.711395356922505</v>
+        <v>15.711401811555252</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>42.268694186231997</v>
+        <v>42.268610278833329</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>14.828665011411349</v>
+        <v>14.828664367386478</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>10.89838492055892</v>
+        <v>10.898386043790785</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>27.120987557013361</v>
+        <v>27.120964309885988</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>13.213974323071767</v>
+        <v>13.213972342630885</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>6.8560793092570691</v>
+        <v>6.8560798412621597</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>9.6744062053710245</v>
+        <v>9.6744041684890068</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>33.780827627083923</v>
+        <v>33.780830603081348</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>13.760811594636642</v>
+        <v>13.760810235303698</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>10.957506198651679</v>
+        <v>10.957510178034688</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>20.380420582844867</v>
+        <v>20.380416085724619</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>10.804188606234863</v>
+        <v>10.804188399775121</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>6.6234888337281301</v>
+        <v>6.6234918883583296</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>8.0476967392885896</v>
+        <v>8.0476949904756392</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>30.091269319117256</v>
+        <v>30.091238510308685</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>17.996815655308239</v>
+        <v>17.996811357464061</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>9.7164034619678805</v>
+        <v>9.7164047465832812</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>16.585066893068358</v>
+        <v>16.585073652101237</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>12.725007586817586</v>
+        <v>12.725012305593086</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>10.114465850154025</v>
+        <v>10.114465903704062</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>11.597781103270489</v>
+        <v>11.597782187148573</v>
       </c>
     </row>
     <row r="369">
       <c r="A369">
-        <v>39.632168811015447</v>
+        <v>39.632169344473752</v>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>26.271574057911405</v>
+        <v>26.271562168634571</v>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>14.206455913850283</v>
+        <v>14.206454895855186</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>12.874279487696093</v>
+        <v>12.874278433619281</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>10.321261093667937</v>
+        <v>10.32125815405621</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>16.40184171908512</v>
+        <v>16.401834610562961</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>29.239642217890598</v>
+        <v>29.239655176662637</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>19.498628658459108</v>
+        <v>19.498630028357592</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>22.61474817726323</v>
+        <v>22.614723615142772</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>15.593146585667384</v>
+        <v>15.593158192484502</v>
       </c>
     </row>
     <row r="379">
       <c r="A379">
-        <v>18.156710349389183</v>
+        <v>18.156709235227936</v>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>11.838298722262515</v>
+        <v>11.83829832641333</v>
       </c>
     </row>
     <row r="381">
       <c r="A381">
-        <v>9.2492031275298192</v>
+        <v>9.2492036069446399</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>9.2950440424012317</v>
+        <v>9.2950449010041041</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>31.344188292933609</v>
+        <v>31.344188295711746</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>14.636103447177334</v>
+        <v>14.636118157011692</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>10.669128349864394</v>
+        <v>10.669131630263861</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>17.452313766070176</v>
+        <v>17.452323918952928</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>11.676375960309183</v>
+        <v>11.676376140316872</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>8.6192141143849774</v>
+        <v>8.6192135679698652</v>
       </c>
     </row>
     <row r="389">
       <c r="A389">
-        <v>13.279537135733998</v>
+        <v>13.279527554619225</v>
       </c>
     </row>
     <row r="390">
       <c r="A390">
-        <v>33.373900518341365</v>
+        <v>33.373890956526907</v>
       </c>
     </row>
     <row r="391">
       <c r="A391">
-        <v>18.210308737513508</v>
+        <v>18.210318730341733</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>12.434951216868061</v>
+        <v>12.434952989985741</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>27.064356168310848</v>
+        <v>27.064359938498871</v>
       </c>
     </row>
     <row r="394">
       <c r="A394">
-        <v>13.353409744198066</v>
+        <v>13.353415686914518</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>8.9016272572920681</v>
+        <v>8.9016260314009372</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>14.071726319628318</v>
+        <v>14.071733864387955</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>24.189079715531321</v>
+        <v>24.189107486831627</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>11.914501548836393</v>
+        <v>11.91449625314357</v>
       </c>
     </row>
     <row r="399">
       <c r="A399">
-        <v>13.998262309764284</v>
+        <v>13.998251977385886</v>
       </c>
     </row>
     <row r="400">
       <c r="A400">
-        <v>28.588028026878767</v>
+        <v>28.588021342811654</v>
       </c>
     </row>
     <row r="401">
       <c r="A401">
-        <v>16.16596453149716</v>
+        <v>16.165978453985243</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>8.8358914399905402</v>
+        <v>8.8358904471868005</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>16.070243323600586</v>
+        <v>16.070251373381904</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>26.267890656975375</v>
+        <v>26.267913727287763</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>12.545917540787656</v>
+        <v>12.54591418544609</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>16.047498524480282</v>
+        <v>16.04748866164384</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>23.164523819399847</v>
+        <v>23.164538470687347</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>11.55334533353985</v>
+        <v>11.553346936008859</v>
       </c>
     </row>
     <row r="409">
       <c r="A409">
-        <v>10.599311035731358</v>
+        <v>10.599308369733187</v>
       </c>
     </row>
     <row r="410">
       <c r="A410">
-        <v>16.702123125818588</v>
+        <v>16.702117189769837</v>
       </c>
     </row>
     <row r="411">
       <c r="A411">
-        <v>27.360403612010646</v>
+        <v>27.360391805829025</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>17.939986607452305</v>
+        <v>17.939972719301139</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>18.397309265641177</v>
+        <v>18.397320031684039</v>
       </c>
     </row>
     <row r="414">
       <c r="A414">
-        <v>12.697271054470225</v>
+        <v>12.697275654812515</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>10.78300540306234</v>
+        <v>10.783001699847905</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>11.762091387649381</v>
+        <v>11.762092817196393</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>20.94694624979261</v>
+        <v>20.946935887074222</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>25.651466435881964</v>
+        <v>25.651469083062182</v>
       </c>
     </row>
     <row r="419">
       <c r="A419">
-        <v>11.875474338434852</v>
+        <v>11.875471800293798</v>
       </c>
     </row>
     <row r="420">
       <c r="A420">
-        <v>8.4260777942821363</v>
+        <v>8.4260795373071282</v>
       </c>
     </row>
     <row r="421">
       <c r="A421">
-        <v>22.897316375913352</v>
+        <v>22.897338232735407</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>10.562208152734993</v>
+        <v>10.562205873779732</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>10.24322483260875</v>
+        <v>10.243226951104347</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>13.997725260435052</v>
+        <v>13.997734616906893</v>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>13.83197991879803</v>
+        <v>13.831987544454881</v>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>15.527223056180461</v>
+        <v>15.527242831326742</v>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>10.255846399896317</v>
+        <v>10.255847160003203</v>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>23.609534788834594</v>
+        <v>23.609522133019926</v>
       </c>
     </row>
     <row r="429">
       <c r="A429">
-        <v>14.169558644943116</v>
+        <v>14.169564216696298</v>
       </c>
     </row>
     <row r="430">
       <c r="A430">
-        <v>10.371931071607221</v>
+        <v>10.37193327796372</v>
       </c>
     </row>
     <row r="431">
       <c r="A431">
-        <v>17.127132257123002</v>
+        <v>17.127109849127059</v>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>16.779854742785595</v>
+        <v>16.779869093522287</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>12.067613437658416</v>
+        <v>12.067607297417325</v>
       </c>
     </row>
     <row r="434">
       <c r="A434">
-        <v>12.045911456933597</v>
+        <v>12.045903505693556</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>23.346326200613731</v>
+        <v>23.346387474192035</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>11.786142775636817</v>
+        <v>11.786137366756563</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>7.3829384900791091</v>
+        <v>7.3829416665350873</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>13.701941110792026</v>
+        <v>13.701947784465201</v>
       </c>
     </row>
     <row r="439">
       <c r="A439">
-        <v>11.113356727490022</v>
+        <v>11.113349607035296</v>
       </c>
     </row>
     <row r="440">
       <c r="A440">
-        <v>8.2909144791799925</v>
+        <v>8.2909158790091926</v>
       </c>
     </row>
     <row r="441">
       <c r="A441">
-        <v>5.7308135327610241</v>
+        <v>5.7308139581190281</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>19.294202992233927</v>
+        <v>19.294210893569954</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>8.5515597807689829</v>
+        <v>8.551556390099714</v>
       </c>
     </row>
     <row r="444">
       <c r="A444">
-        <v>4.7467570229365261</v>
+        <v>4.7467593433670849</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>8.4442591664744846</v>
+        <v>8.444262263528902</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>9.2287303099236304</v>
+        <v>9.2287334843928654</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>6.0014875434336954</v>
+        <v>6.1171667191311716</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>4.4127057434595676</v>
+        <v>4.4946233436085716</v>
       </c>
     </row>
     <row r="449">
       <c r="A449">
-        <v>8.0015429589934577</v>
+        <v>8.4341242327345292</v>
       </c>
     </row>
     <row r="450">
       <c r="A450">
-        <v>3.5827461759130821</v>
+        <v>3.7213393489901128</v>
       </c>
     </row>
     <row r="451">
       <c r="A451">
-        <v>2.9521208808964117</v>
+        <v>2.9848204562209446</v>
       </c>
     </row>
     <row r="452">
       <c r="A452">
-        <v>7.5068515746821198</v>
+        <v>7.8883847644903549</v>
       </c>
     </row>
     <row r="453">
       <c r="A453">
-        <v>4.8349585099046539</v>
+        <v>5.0233201085136248</v>
       </c>
     </row>
     <row r="454">
       <c r="A454">
-        <v>2.5443086315977848</v>
+        <v>2.600996893967273</v>
       </c>
     </row>
     <row r="455">
       <c r="A455">
-        <v>3.3736177468966266</v>
+        <v>3.3736162847789188</v>
       </c>
     </row>
     <row r="456">
       <c r="A456">
-        <v>9.5687623221517626</v>
+        <v>9.5687629591693071</v>
       </c>
     </row>
     <row r="457">
       <c r="A457">
-        <v>4.156701450031612</v>
+        <v>4.1567050475157492</v>
       </c>
     </row>
     <row r="458">
       <c r="A458">
-        <v>2.733257539250368</v>
+        <v>2.7332581941912029</v>
       </c>
     </row>
     <row r="459">
       <c r="A459">
-        <v>3.7716632557003447</v>
+        <v>3.7716682391557339</v>
       </c>
     </row>
     <row r="460">
       <c r="A460">
-        <v>3.9563881505849752</v>
+        <v>3.9563786580158524</v>
       </c>
     </row>
     <row r="461">
       <c r="A461">
-        <v>1.685210336238997</v>
+        <v>1.6852098359386214</v>
       </c>
     </row>
     <row r="462">
       <c r="A462">
-        <v>2.9353610848934899</v>
+        <v>2.935355296625755</v>
       </c>
     </row>
     <row r="463">
       <c r="A463">
-        <v>8.4335446821657882</v>
+        <v>8.4335484926182271</v>
       </c>
     </row>
     <row r="464">
       <c r="A464">
-        <v>4.7238499475847497</v>
+        <v>4.7238482304763441</v>
       </c>
     </row>
     <row r="465">
       <c r="A465">
-        <v>2.4988727220360389</v>
+        <v>2.4988726763450959</v>
       </c>
     </row>
   </sheetData>
